--- a/import/raw_data/id_start_year_usage.xlsx
+++ b/import/raw_data/id_start_year_usage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_env\workspace\micat\import\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2794A25E-1A15-4B0A-BA5A-C3709F10A446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030FE2B-13F3-448F-8EAD-FEA98F811C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="2835" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,19 +50,19 @@
     <t>Use current year</t>
   </si>
   <si>
-    <t>Aktuelles Jahr verwenden</t>
-  </si>
-  <si>
     <t>Use start year</t>
   </si>
   <si>
-    <t>Startjahr verwenden</t>
-  </si>
-  <si>
-    <t>Gemischte Nutzung</t>
-  </si>
-  <si>
     <t>Mixed usage, depending on id_action_type</t>
+  </si>
+  <si>
+    <t>Use current year for all parameter values</t>
+  </si>
+  <si>
+    <t>Use start year for all parameter values</t>
+  </si>
+  <si>
+    <t>Use start year for id_action_type values (2 10, 17) and current year for all other values</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -429,10 +429,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,10 +440,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -452,12 +452,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">id_table</Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,21 +717,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">id_table</Type>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2EF63A-266B-42E8-99A2-D0273F97A1BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91090B12-9CA3-466A-A25E-AB044540E812}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -753,18 +762,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91090B12-9CA3-466A-A25E-AB044540E812}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2EF63A-266B-42E8-99A2-D0273F97A1BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>